--- a/docs/Minishell tests.xlsx
+++ b/docs/Minishell tests.xlsx
@@ -1,121 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="273">
-  <si>
-    <t>COMMAND</t>
-  </si>
-  <si>
-    <t>BASH</t>
-  </si>
-  <si>
-    <t>./MINISHELL</t>
-  </si>
-  <si>
-    <t>BUILTINS SIMPLE</t>
-  </si>
-  <si>
-    <t>echo</t>
-  </si>
-  <si>
-    <t>/n</t>
-  </si>
-  <si>
-    <t>echo -n</t>
-  </si>
-  <si>
-    <t>return prompt</t>
-  </si>
-  <si>
-    <t>echo -nnnnn</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="275">
+  <si>
+    <t xml:space="preserve">COMMAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./MINISHELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUILTINS SIMPLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -nnnnn</t>
   </si>
   <si>
     <t xml:space="preserve"> echo This is a test</t>
   </si>
   <si>
-    <t>This is a test\n</t>
-  </si>
-  <si>
-    <t>echo -n This is a test</t>
-  </si>
-  <si>
-    <t>This is a testarepsa@...</t>
-  </si>
-  <si>
-    <t>This is a test[MINISHELL]:...</t>
-  </si>
-  <si>
-    <t>echo -nnnn This is a test</t>
-  </si>
-  <si>
-    <t>echo This is a test -nnnn</t>
-  </si>
-  <si>
-    <t>This is a test -nnnn\n</t>
-  </si>
-  <si>
-    <t>echo $?</t>
-  </si>
-  <si>
-    <t>env</t>
-  </si>
-  <si>
-    <t>prints environment variables</t>
-  </si>
-  <si>
-    <t>env PATH</t>
-  </si>
-  <si>
-    <t>env: ‘PATH’: No such file or directory</t>
-  </si>
-  <si>
-    <t>env: 'PATH': No such file or directory</t>
-  </si>
-  <si>
-    <t>cd</t>
-  </si>
-  <si>
-    <t>arepsa@c1r15s9:~$</t>
-  </si>
-  <si>
-    <t>[MINISHELL]:~$</t>
-  </si>
-  <si>
-    <t>cd .</t>
-  </si>
-  <si>
-    <t>stay in the same directory</t>
-  </si>
-  <si>
-    <t>cd.</t>
-  </si>
-  <si>
-    <t>\nCommand 'cd.' not found, did you mean:...</t>
-  </si>
-  <si>
-    <t>cd.: command not found</t>
-  </si>
-  <si>
-    <t>cd . ls</t>
-  </si>
-  <si>
-    <t>bash: cd: too many arguments</t>
-  </si>
-  <si>
-    <t>minishell: cd: too many arguments</t>
-  </si>
-  <si>
-    <t>cd ../../../..</t>
+    <t xml:space="preserve">This is a test\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -n This is a test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a testarepsa@...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a test[MINISHELL]:...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo -nnnn This is a test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo This is a test -nnnn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a test -nnnn\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo $?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">env</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prints environment variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">env PATH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">env: ‘PATH’: No such file or directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">env: 'PATH': No such file or directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arepsa@c1r15s9:~$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[MINISHELL]:~$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stay in the same directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\nCommand 'cd.' not found, did you mean:...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd.: command not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd . ls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bash: cd: too many arguments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minishell: cd: too many arguments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd ../../../..</t>
   </si>
   <si>
     <t xml:space="preserve">arepsa@c1r15s9:/$ </t>
@@ -124,900 +133,1052 @@
     <t xml:space="preserve">[MINISHELL]:/$ </t>
   </si>
   <si>
-    <t>cd /usr/bin</t>
-  </si>
-  <si>
-    <t>arepsa@c1r15s9:/usr/bin$</t>
+    <t xml:space="preserve">cd /usr/bin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arepsa@c1r15s9:/usr/bin$</t>
   </si>
   <si>
     <t xml:space="preserve">[MINISHELL]:/usr/bin$ </t>
   </si>
   <si>
-    <t>cd nonexistent</t>
-  </si>
-  <si>
-    <t>minishell: cd: nonexistent: No such file or directory</t>
-  </si>
-  <si>
-    <t>unset</t>
-  </si>
-  <si>
-    <t>unset nonexistentvariable</t>
-  </si>
-  <si>
-    <t>unset HOME</t>
-  </si>
-  <si>
-    <t>deletes HOME, returns prompt</t>
-  </si>
-  <si>
-    <t>cd (after unsetting HOME)</t>
-  </si>
-  <si>
-    <t>bash: cd: HOME not set</t>
-  </si>
-  <si>
-    <t>minishell: cd: HOME not set</t>
-  </si>
-  <si>
-    <t>unset USER</t>
-  </si>
-  <si>
-    <t>deletes USER from env</t>
-  </si>
-  <si>
-    <t>export USER=bubu (do after unset)</t>
-  </si>
-  <si>
-    <t>adds to env new user bubu</t>
-  </si>
-  <si>
-    <t>export =</t>
-  </si>
-  <si>
-    <t>bash: export: `=': not a valid identifier</t>
-  </si>
-  <si>
-    <t>minishell: export: '=': not a valid identifier</t>
-  </si>
-  <si>
-    <t>export ABC=$USER</t>
-  </si>
-  <si>
-    <t>changes ABC=username</t>
-  </si>
-  <si>
-    <t>export novalue</t>
-  </si>
-  <si>
-    <t>returns prompt, keeps "novalue" in export print, but doesn't add to env</t>
-  </si>
-  <si>
-    <t>export=zzzzzz</t>
-  </si>
-  <si>
-    <t>returns promt, doesn't add any variables</t>
-  </si>
-  <si>
-    <t>When an equal sign is present, even if the command is not found, the bash returns the prompt without error message</t>
-  </si>
-  <si>
-    <t>export _</t>
-  </si>
-  <si>
-    <t>doesn't export _ (special case)</t>
-  </si>
-  <si>
-    <t>fdgsdfhb=</t>
-  </si>
-  <si>
-    <t>returns prompt</t>
-  </si>
-  <si>
-    <t>unset blabla OLDPWD</t>
-  </si>
-  <si>
-    <t>deletes OLDPWD, returns prompt</t>
-  </si>
-  <si>
-    <t>unset ALL VARIABLES</t>
-  </si>
-  <si>
-    <t>unsets all, returns prompt</t>
-  </si>
-  <si>
-    <t>unsets all, returns promt</t>
-  </si>
-  <si>
-    <t>env (perform after unsetting all variables)</t>
-  </si>
-  <si>
-    <t>bash: env: No such file or directory</t>
-  </si>
-  <si>
-    <t>returns prompt (and does enter the env builtin..)</t>
-  </si>
-  <si>
-    <t>This happens after unset PATH, since our env is a builtin, the behaviour is different</t>
-  </si>
-  <si>
-    <t>pwd</t>
-  </si>
-  <si>
-    <t>prints home, returns prompt</t>
-  </si>
-  <si>
-    <t>pwd args</t>
-  </si>
-  <si>
-    <t>export</t>
-  </si>
-  <si>
-    <t>prints ordered env variables with "declare -x" before</t>
-  </si>
-  <si>
-    <t>prints env variables</t>
-  </si>
-  <si>
-    <t>Open bash before minishell</t>
-  </si>
-  <si>
-    <t>exit</t>
-  </si>
-  <si>
-    <t>exits with exit code 0</t>
-  </si>
-  <si>
-    <t>exit 300</t>
-  </si>
-  <si>
-    <t>exits with exit code 44</t>
-  </si>
-  <si>
-    <t>exit -300</t>
-  </si>
-  <si>
-    <t>exits with exit code 212</t>
-  </si>
-  <si>
-    <t>exit +300</t>
-  </si>
-  <si>
-    <t>exit 2 3</t>
-  </si>
-  <si>
-    <t>bash: exit: too many arguments (and does not exit)</t>
-  </si>
-  <si>
-    <t>exit abc</t>
-  </si>
-  <si>
-    <t>bash: exit: abc: numeric argument required + exits program</t>
-  </si>
-  <si>
-    <t>minishell: exit: abc: numeric argument required + exits program</t>
-  </si>
-  <si>
-    <t>exit 99999999999999999999999</t>
-  </si>
-  <si>
-    <t>bash: exit: 99999999999999999999999: numeric argument required</t>
-  </si>
-  <si>
-    <t>unset -n HOME</t>
-  </si>
-  <si>
-    <t>does nothing</t>
-  </si>
-  <si>
-    <t>unsets HOME</t>
-  </si>
-  <si>
-    <t>subject: implement UNSET with no options</t>
-  </si>
-  <si>
-    <t>QUOTES</t>
-  </si>
-  <si>
-    <t>echo "Hello World"</t>
-  </si>
-  <si>
-    <t>Hello World</t>
-  </si>
-  <si>
-    <t>echo "'Hello World'"</t>
+    <t xml:space="preserve">cd nonexistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minishell: cd: nonexistent: No such file or directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unset nonexistentvariable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unset HOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deletes HOME, returns prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd (after unsetting HOME)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bash: cd: HOME not set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minishell: cd: HOME not set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unset USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deletes USER from env</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export USER=bubu (do after unset)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adds to env new user bubu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bash: export: `=': not a valid identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minishell: export: '=': not a valid identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export ABC=$USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changes ABC=username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export novalue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">returns prompt, keeps "novalue" in export print, but doesn't add to env</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export=zzzzzz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">returns promt, doesn't add any variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When an equal sign is present, even if the command is not found, the bash returns the prompt without error message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doesn't export _ (special case)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdgsdfhb=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">returns prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unset blabla OLDPWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deletes OLDPWD, returns prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unset ALL VARIABLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsets all, returns prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsets all, returns promt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">env (perform after unsetting all variables)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bash: env: No such file or directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">returns prompt (and does enter the env builtin..)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This happens after unset PATH, since our env is a builtin, the behaviour is different</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prints home, returns prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pwd args</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prints ordered env variables with "declare -x" before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prints env variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open bash before minishell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exits with exit code 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit 300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exits with exit code 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit -300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exits with exit code 212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit +300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit 2 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bash: exit: too many arguments (and does not exit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bash: exit: abc: numeric argument required + exits program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minishell: exit: abc: numeric argument required + exits program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit 99999999999999999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bash: exit: 99999999999999999999999: numeric argument required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unset -n HOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsets HOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subject: implement UNSET with no options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUOTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo "Hello World"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo "'Hello World'"</t>
   </si>
   <si>
     <t xml:space="preserve"> 'Hello World'</t>
   </si>
   <si>
-    <t>"echo Hello World"</t>
-  </si>
-  <si>
-    <t>echo Hello World: command not found</t>
-  </si>
-  <si>
-    <t>echo Hello World'</t>
-  </si>
-  <si>
-    <t>echo "</t>
-  </si>
-  <si>
-    <t>unclosed quotes</t>
-  </si>
-  <si>
-    <t>mensagem de erro de: unclosed quotes</t>
-  </si>
-  <si>
-    <t>"/bin/ls"</t>
-  </si>
-  <si>
-    <t>execute ls</t>
-  </si>
-  <si>
-    <t>./minishell</t>
-  </si>
-  <si>
-    <t>execute minishell</t>
-  </si>
-  <si>
-    <t>""ls""</t>
-  </si>
-  <si>
-    <t>"'"ls"'"</t>
-  </si>
-  <si>
-    <t>ls': command not found</t>
-  </si>
-  <si>
-    <t>""ls -l""</t>
-  </si>
-  <si>
-    <t>execute ls with details</t>
-  </si>
-  <si>
-    <t>"e"'c'''h"o" Hello</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>"pw"""d</t>
-  </si>
-  <si>
-    <t>prints home directory</t>
-  </si>
-  <si>
-    <t>export USER=bubu LAST='quote'</t>
-  </si>
-  <si>
-    <t>updates user and creates LAST=quote</t>
-  </si>
-  <si>
-    <t>echo '$HOME e $CASA e $USER'</t>
-  </si>
-  <si>
-    <t>$HOME e $CASA e $USER</t>
-  </si>
-  <si>
-    <t>echo ''$HOME e $CASA e $USER''</t>
-  </si>
-  <si>
-    <t>(expande)HOME e e (expande)USER</t>
-  </si>
-  <si>
-    <t>echo ''$HOME e '$CASA' e $USER''</t>
-  </si>
-  <si>
-    <t>(expande)HOME e $CASA e (expande)USER</t>
-  </si>
-  <si>
-    <t>echo "cama'</t>
-  </si>
-  <si>
-    <t>echo "$HOME | echo '$USER'</t>
-  </si>
-  <si>
-    <t>"ls' | 'wc"</t>
-  </si>
-  <si>
-    <t>ls' | 'wc: command not found</t>
-  </si>
-  <si>
-    <t>"ls" | 'wc"</t>
-  </si>
-  <si>
-    <t>ls | grep "'md | wc -l</t>
-  </si>
-  <si>
-    <t>ls | grep "'"md | wc -l</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>ls | grep "md" | wc -l</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>echo "md" | wc</t>
-  </si>
-  <si>
-    <t>1   1   3</t>
-  </si>
-  <si>
-    <t>echo "$HOME | echo '$USER'"</t>
-  </si>
-  <si>
-    <t>(expande)HOME | echo '(expande)USER'</t>
-  </si>
-  <si>
-    <t>echo ""carro' | echo 'cama""</t>
-  </si>
-  <si>
-    <t>carro | echo cama</t>
-  </si>
-  <si>
-    <t>echo "fred' | echo 'cama"</t>
-  </si>
-  <si>
-    <t>fred' | echo 'cama</t>
-  </si>
-  <si>
-    <t>"nao imprime nada"</t>
-  </si>
-  <si>
-    <t>echo "cat lol.c | cat &gt; lol.c"</t>
-  </si>
-  <si>
-    <t>cat lol.c | cat &gt; lol.c</t>
-  </si>
-  <si>
-    <t>echo '$USER'</t>
-  </si>
-  <si>
-    <t>prints $USER</t>
-  </si>
-  <si>
-    <t>export WWW="     -aaa |  "</t>
-  </si>
-  <si>
-    <t>saves variable WWW="     -aaa |  "</t>
-  </si>
-  <si>
-    <t>when quotes present, minishell splits commands</t>
-  </si>
-  <si>
-    <t>export ZZ"Y=aaa"bb</t>
-  </si>
-  <si>
-    <t>exports variable ZZY="aaabb"</t>
-  </si>
-  <si>
-    <t>ech"o Hell"o</t>
-  </si>
-  <si>
-    <t>echo Hello: command not found</t>
-  </si>
-  <si>
-    <t>unset MA"IL"</t>
-  </si>
-  <si>
-    <t>unsets MAIL</t>
-  </si>
-  <si>
-    <t>echo 42' '42</t>
-  </si>
-  <si>
-    <t>42 42</t>
-  </si>
-  <si>
-    <t>echo a'b'c'd'e'f'g'h'i'j'k'l'm'n'o'p'q'r's't'</t>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrst</t>
-  </si>
-  <si>
-    <t>echo $USER'$USER'</t>
-  </si>
-  <si>
-    <t>damachad$USER</t>
-  </si>
-  <si>
-    <t>cd ""</t>
-  </si>
-  <si>
-    <t>export test="a        b         c"; echo $test</t>
-  </si>
-  <si>
-    <t>a b c</t>
-  </si>
-  <si>
-    <t>EXPANDER</t>
-  </si>
-  <si>
-    <t>echo $USER</t>
-  </si>
-  <si>
-    <t>prints username</t>
-  </si>
-  <si>
-    <t>creates var ABC=username</t>
-  </si>
-  <si>
-    <t>EXIT CODES</t>
-  </si>
-  <si>
-    <t>cat nonexistant file or folder; echo $?</t>
-  </si>
-  <si>
-    <t>exit code 1</t>
-  </si>
-  <si>
-    <t>enter ./minishell; exit 300</t>
-  </si>
-  <si>
-    <t>exit code 44</t>
-  </si>
-  <si>
-    <t>./not_executable_file</t>
-  </si>
-  <si>
-    <t>exit code 126</t>
-  </si>
-  <si>
-    <t>&lt; not_existing_file</t>
-  </si>
-  <si>
-    <t>| echo 1</t>
-  </si>
-  <si>
-    <t>exit code 2</t>
-  </si>
-  <si>
-    <t>ls not_existing_file</t>
-  </si>
-  <si>
-    <t>PIPES</t>
-  </si>
-  <si>
-    <t>"ls" | 'wc'</t>
-  </si>
-  <si>
-    <t>execute ls and wc</t>
-  </si>
-  <si>
-    <t>unset USER | env | grep USER</t>
-  </si>
-  <si>
-    <t>USER=arepsa (doesn't unset variable)</t>
-  </si>
-  <si>
-    <t>unset OLDPWD | ls</t>
-  </si>
-  <si>
-    <t>performs ls, doesn't unset variable</t>
-  </si>
-  <si>
-    <t>echo USER | export USER=bubu</t>
-  </si>
-  <si>
-    <t>echo doesn't perform, USER is not changed, returns prompt</t>
-  </si>
-  <si>
-    <t>echo Hello World | | grep e</t>
-  </si>
-  <si>
-    <t>bash: syntax error near unexpected token `|'</t>
-  </si>
-  <si>
-    <t>minishell: syntax error near unexpected token</t>
-  </si>
-  <si>
-    <t>cat | cat | ls</t>
-  </si>
-  <si>
-    <t>performs ls and exits after 2 enters</t>
-  </si>
-  <si>
-    <t>cat /dev/urandom | head -c 100</t>
-  </si>
-  <si>
-    <t>returns 100 random characters</t>
-  </si>
-  <si>
-    <t>REDIRECTS</t>
-  </si>
-  <si>
-    <t>echo hello &gt; outfile</t>
-  </si>
-  <si>
-    <t>ls "&gt;" ola</t>
-  </si>
-  <si>
-    <t>ls: cannot access '&gt;': No such file or directory</t>
-  </si>
-  <si>
-    <t>ls: cannot access 'ola': No such file or directory</t>
-  </si>
-  <si>
-    <t>&lt; inacessible_file | cat -e &gt; output</t>
-  </si>
-  <si>
-    <t>creates empty output file</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>bash: syntax error near unexpected token `newline'</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>&gt; test</t>
-  </si>
-  <si>
-    <t>&lt; existingfile</t>
-  </si>
-  <si>
-    <t>Does nothing</t>
-  </si>
-  <si>
-    <t>&lt; testfile &gt; testfile2</t>
-  </si>
-  <si>
-    <t>creates empty output file "testfile2"</t>
-  </si>
-  <si>
-    <t>HEREDOCS</t>
-  </si>
-  <si>
-    <t>&lt;&lt;</t>
-  </si>
-  <si>
-    <t>&gt;&gt;</t>
-  </si>
-  <si>
-    <t>cat &lt;&lt; end | wc -l</t>
-  </si>
-  <si>
-    <t>count lines of heredoc file</t>
-  </si>
-  <si>
-    <t>cat &lt;&lt; end | grep e</t>
-  </si>
-  <si>
-    <t>returns heredoc lines that contain e</t>
-  </si>
-  <si>
-    <t>&lt;&lt; end | grep e</t>
-  </si>
-  <si>
-    <t>&lt;&lt; EOF cat</t>
-  </si>
-  <si>
-    <t>expands any variable inside it</t>
-  </si>
-  <si>
-    <t>&lt;&lt; "EOF" cat</t>
-  </si>
-  <si>
-    <t>Does not expand</t>
-  </si>
-  <si>
-    <t>&lt;&lt; 'EOF' cat</t>
-  </si>
-  <si>
-    <t>&lt;&lt; "EOF' cat</t>
-  </si>
-  <si>
-    <t>DENTRO de HEREDOCS</t>
-  </si>
-  <si>
-    <t>$USER e $CASA e "$ HOME" e '$ HOME' "$HOME" '$HOME' $HOME</t>
-  </si>
-  <si>
-    <t>(expande)USER e e "$ HOME e '$ HOME' "(expande)HOME" '(expande)HOME' (expande)HOME</t>
-  </si>
-  <si>
-    <t>$CASA $ CAMA</t>
+    <t xml:space="preserve">"echo Hello World"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo Hello World: command not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo Hello World'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unclosed quotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mensagem de erro de: unclosed quotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"/bin/ls"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execute ls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./minishell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execute minishell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">""ls""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"'"ls"'"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls': command not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">""ls -l""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execute ls with details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"e"'c'''h"o" Hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"pw"""d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prints home directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export USER=bubu LAST='quote'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updates user and creates LAST=quote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo '$HOME e $CASA e $USER'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$HOME e $CASA e $USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo ''$HOME e $CASA e $USER''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(expande)HOME e e (expande)USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo ''$HOME e '$CASA' e $USER''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(expande)HOME e $CASA e (expande)USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo "cama'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo "$HOME | echo '$USER'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ls' | 'wc"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls' | 'wc: command not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ls" | 'wc"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls | grep "'md | wc -l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls | grep "'"md | wc -l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls | grep "md" | wc -l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo "md" | wc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1   1   3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo "$HOME | echo '$USER'"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(expande)HOME | echo '(expande)USER'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo ""carro' | echo 'cama""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carro | echo cama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo "fred' | echo 'cama"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fred' | echo 'cama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"nao imprime nada"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo "cat lol.c | cat &gt; lol.c"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat lol.c | cat &gt; lol.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo '$USER'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prints $USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export WWW="     -aaa |  "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saves variable WWW="     -aaa |  "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when quotes present, minishell splits commands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export ZZ"Y=aaa"bb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exports variable ZZY="aaabb"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ech"o Hell"o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo Hello: command not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unset MA"IL"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsets MAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo 42' '42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo a'b'c'd'e'f'g'h'i'j'k'l'm'n'o'p'q'r's't'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo $USER'$USER'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">damachad$USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export test="a        b         c"; echo $test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a b c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPANDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo $USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prints username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creates var ABC=username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo ola$USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prints olaUSERNAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXIT CODES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat nonexistant file or folder; echo $?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit code 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter ./minishell; exit 300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit code 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./not_executable_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit code 126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; not_existing_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| echo 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit code 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls not_existing_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ls" | 'wc'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execute ls and wc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unset USER | env | grep USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USER=arepsa (doesn't unset variable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unset OLDPWD | ls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">performs ls, doesn't unset variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo USER | export USER=bubu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo doesn't perform, USER is not changed, returns prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo Hello World | | grep e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bash: syntax error near unexpected token `|'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minishell: syntax error near unexpected token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat | cat | ls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">performs ls and exits after 2 enters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat /dev/urandom | head -c 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">returns 100 random characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REDIRECTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo hello &gt; outfile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls "&gt;" ola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls: cannot access '&gt;': No such file or directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls: cannot access 'ola': No such file or directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; inacessible_file | cat -e &gt; output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creates empty output file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bash: syntax error near unexpected token `newline'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; existingfile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; testfile &gt; testfile2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creates empty output file "testfile2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEREDOCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat &lt;&lt; end | wc -l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count lines of heredoc file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat &lt;&lt; end | grep e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">returns heredoc lines that contain e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&lt; end | grep e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&lt; EOF cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expands any variable inside it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&lt; "EOF" cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does not expand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&lt; 'EOF' cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&lt; "EOF' cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENTRO de HEREDOCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$USER e $CASA e "$ HOME" e '$ HOME' "$HOME" '$HOME' $HOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(expande)USER e e "$ HOME e '$ HOME' "(expande)HOME" '(expande)HOME' (expande)HOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$CASA $ CAMA</t>
   </si>
   <si>
     <t xml:space="preserve"> $ CAMA</t>
   </si>
   <si>
-    <t>"$CASA" | "$ CAMA" | "$USER" | '$HOME' $USER $ "$ HOME" &lt;&lt; HOME</t>
-  </si>
-  <si>
-    <t>"" | "$ CAMA" | (espande)"USER" | '(espande)HOME' (espande)USER $ "$ HOME" &lt;&lt; HOME</t>
-  </si>
-  <si>
-    <t>COMMANDS</t>
-  </si>
-  <si>
-    <t>ls $jhrgsdhgbd</t>
-  </si>
-  <si>
-    <t>Executes ls</t>
-  </si>
-  <si>
-    <t>unset PATH; ls</t>
-  </si>
-  <si>
-    <t>bash: ls: No such file or directory</t>
-  </si>
-  <si>
-    <t>minishell: ls: command not found</t>
-  </si>
-  <si>
-    <t>/dev/urandom</t>
-  </si>
-  <si>
-    <t>bash: /dev/urandom: Permission denied</t>
-  </si>
-  <si>
-    <t>minishell: /dev/urandom: Permission denied</t>
-  </si>
-  <si>
-    <t>$&lt;something that does not exist&gt;</t>
-  </si>
-  <si>
-    <t>TO SOLVE</t>
-  </si>
-  <si>
-    <t>export test="ls -l"; $test</t>
-  </si>
-  <si>
-    <t>runs ls -l</t>
-  </si>
-  <si>
-    <t>""""</t>
-  </si>
-  <si>
-    <t>Command '' not found, but can be installed with:</t>
-  </si>
-  <si>
-    <t>minishell: : command not found</t>
-  </si>
-  <si>
-    <t>&lt;&lt; eof; Ctrl + C</t>
-  </si>
-  <si>
-    <t>returns prompt but with an extra \n before</t>
-  </si>
-  <si>
-    <t>$PWD</t>
-  </si>
-  <si>
-    <t>bash: &lt;PWD&gt;: Is a directory</t>
-  </si>
-  <si>
-    <t>execve: Permission denied</t>
-  </si>
-  <si>
-    <t>cat /bin/ls</t>
-  </si>
-  <si>
-    <t>./bin/lsg | wc</t>
-  </si>
-  <si>
-    <t>ping 8.8.8.8</t>
-  </si>
-  <si>
-    <t>export test; export test=hello; echo $test</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t>Command '' not found</t>
-  </si>
-  <si>
-    <t>execve: Permission denied + leaks - Aija</t>
-  </si>
-  <si>
-    <t>"" | ls</t>
-  </si>
-  <si>
-    <t>executes ls, and shows "command not found"</t>
-  </si>
-  <si>
-    <t>shows "command not found" then executes ls - Aija</t>
+    <t xml:space="preserve">"$CASA" | "$ CAMA" | "$USER" | '$HOME' $USER $ "$ HOME" &lt;&lt; HOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"" | "$ CAMA" | (espande)"USER" | '(espande)HOME' (espande)USER $ "$ HOME" &lt;&lt; HOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMANDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls $jhrgsdhgbd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executes ls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unset PATH; ls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bash: ls: No such file or directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minishell: ls: command not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/dev/urandom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bash: /dev/urandom: Permission denied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minishell: /dev/urandom: Permission denied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$&lt;something that does not exist&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO SOLVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export test="ls -l"; $test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">runs ls -l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">""""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command '' not found, but can be installed with:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minishell: : command not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&lt; eof; Ctrl + C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">returns prompt but with an extra \n before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$PWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bash: &lt;PWD&gt;: Is a directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execve: Permission denied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat /bin/ls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./bin/lsg | wc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ping 8.8.8.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export test; export test=hello; echo $test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command '' not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execve: Permission denied + leaks - Aija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"" | ls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">executes ls, and shows "command not found"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows "command not found" then executes ls - Aija</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="10">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Roboto"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Roboto"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
+        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE599"/>
-        <bgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE06666"/>
-        <bgColor rgb="FFE06666"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="27">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFE06666"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCFE2F3"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFCE5CD"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFE599"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1028,94 +1189,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -1123,33 +1280,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -1162,13 +1310,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1178,15 +1320,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -1194,7 +1334,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -1202,11 +1341,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1215,24 +1354,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A2:F155"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C94" activeCellId="0" sqref="C94"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.25"/>
-    <col customWidth="1" min="2" max="2" width="5.63"/>
-    <col customWidth="1" min="3" max="3" width="53.5"/>
-    <col customWidth="1" min="4" max="4" width="63.63"/>
-    <col customWidth="1" min="5" max="5" width="37.5"/>
-    <col customWidth="1" min="6" max="6" width="30.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="63.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.38"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1252,7 +1394,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1264,7 +1406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1276,7 +1418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +1430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1300,7 +1442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1312,7 +1454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -1324,7 +1466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1336,7 +1478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -1344,7 +1486,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1356,7 +1498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1368,7 +1510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
@@ -1380,7 +1522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
@@ -1392,7 +1534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
@@ -1404,7 +1546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
@@ -1416,7 +1558,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
@@ -1428,7 +1570,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
@@ -1440,7 +1582,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
@@ -1452,7 +1594,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
@@ -1464,7 +1606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
@@ -1476,7 +1618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -1488,7 +1630,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
@@ -1500,7 +1642,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>49</v>
       </c>
@@ -1512,7 +1654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
@@ -1524,7 +1666,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>53</v>
       </c>
@@ -1536,7 +1678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
@@ -1548,7 +1690,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>58</v>
       </c>
@@ -1560,7 +1702,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>60</v>
       </c>
@@ -1576,7 +1718,7 @@
       </c>
       <c r="F30" s="8"/>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>63</v>
       </c>
@@ -1587,9 +1729,10 @@
       <c r="D31" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="E31" s="10"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
         <v>65</v>
       </c>
@@ -1600,9 +1743,10 @@
       <c r="D32" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="E32" s="10"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
         <v>67</v>
       </c>
@@ -1614,7 +1758,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
         <v>69</v>
       </c>
@@ -1626,7 +1770,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
         <v>72</v>
       </c>
@@ -1637,11 +1781,12 @@
       <c r="D35" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36">
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
         <v>76</v>
       </c>
@@ -1653,7 +1798,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
         <v>78</v>
       </c>
@@ -1665,7 +1810,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
@@ -1677,7 +1822,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
         <v>18</v>
       </c>
@@ -1692,7 +1837,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
         <v>83</v>
       </c>
@@ -1704,7 +1849,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
         <v>85</v>
       </c>
@@ -1716,7 +1861,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
         <v>87</v>
       </c>
@@ -1728,7 +1873,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
         <v>89</v>
       </c>
@@ -1740,7 +1885,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
         <v>90</v>
       </c>
@@ -1752,7 +1897,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
         <v>92</v>
       </c>
@@ -1765,7 +1910,7 @@
       </c>
       <c r="E45" s="8"/>
     </row>
-    <row r="46">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
         <v>95</v>
       </c>
@@ -1777,7 +1922,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
@@ -1792,13 +1937,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
         <v>101</v>
       </c>
@@ -1806,7 +1951,7 @@
       <c r="C49" s="4"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
         <v>102</v>
       </c>
@@ -1818,7 +1963,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
         <v>104</v>
       </c>
@@ -1830,7 +1975,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
         <v>106</v>
       </c>
@@ -1842,8 +1987,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="12" t="s">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B53" s="4"/>
@@ -1854,7 +1999,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
         <v>109</v>
       </c>
@@ -1866,7 +2011,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
         <v>112</v>
       </c>
@@ -1878,7 +2023,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
         <v>114</v>
       </c>
@@ -1889,7 +2034,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
         <v>116</v>
       </c>
@@ -1901,19 +2046,19 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
         <v>119</v>
       </c>
@@ -1925,7 +2070,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
         <v>121</v>
       </c>
@@ -1937,7 +2082,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
         <v>123</v>
       </c>
@@ -1949,7 +2094,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
         <v>125</v>
       </c>
@@ -1961,7 +2106,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
         <v>127</v>
       </c>
@@ -1973,7 +2118,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
         <v>129</v>
       </c>
@@ -1985,7 +2130,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
         <v>131</v>
       </c>
@@ -1997,7 +2142,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
         <v>133</v>
       </c>
@@ -2009,7 +2154,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
         <v>134</v>
       </c>
@@ -2021,7 +2166,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
         <v>135</v>
       </c>
@@ -2033,7 +2178,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
         <v>137</v>
       </c>
@@ -2045,7 +2190,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
         <v>138</v>
       </c>
@@ -2057,43 +2202,43 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B71" s="4"/>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B72" s="4"/>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B73" s="5"/>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
         <v>145</v>
       </c>
@@ -2105,7 +2250,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
         <v>147</v>
       </c>
@@ -2117,7 +2262,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
         <v>149</v>
       </c>
@@ -2129,31 +2274,31 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="14" t="s">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="14" t="s">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
         <v>156</v>
       </c>
@@ -2168,7 +2313,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
         <v>159</v>
       </c>
@@ -2180,7 +2325,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
         <v>161</v>
       </c>
@@ -2192,7 +2337,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
         <v>163</v>
       </c>
@@ -2204,7 +2349,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
         <v>165</v>
       </c>
@@ -2218,7 +2363,7 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
     </row>
-    <row r="84">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
         <v>167</v>
       </c>
@@ -2232,7 +2377,7 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
     </row>
-    <row r="85">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
         <v>169</v>
       </c>
@@ -2246,7 +2391,7 @@
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
     </row>
-    <row r="86">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
         <v>171</v>
       </c>
@@ -2258,7 +2403,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
         <v>172</v>
       </c>
@@ -2269,13 +2414,13 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="7"/>
     </row>
-    <row r="89">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
         <v>174</v>
       </c>
@@ -2283,7 +2428,7 @@
       <c r="C89" s="4"/>
       <c r="D89" s="7"/>
     </row>
-    <row r="90">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
         <v>175</v>
       </c>
@@ -2295,7 +2440,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
         <v>56</v>
       </c>
@@ -2307,33 +2452,31 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="5"/>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="7"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="3" t="s">
-        <v>178</v>
-      </c>
+      <c r="C92" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="5"/>
+      <c r="C93" s="4"/>
       <c r="D93" s="7"/>
     </row>
-    <row r="94">
-      <c r="A94" s="5" t="s">
-        <v>179</v>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="B94" s="4"/>
-      <c r="C94" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="95">
+      <c r="C94" s="5"/>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
         <v>181</v>
       </c>
@@ -2345,7 +2488,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
         <v>183</v>
       </c>
@@ -2357,69 +2500,69 @@
         <v>184</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
         <v>185</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="5"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="7"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="s">
+      <c r="C100" s="5" t="s">
         <v>189</v>
       </c>
+      <c r="D100" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="7"/>
     </row>
-    <row r="102">
-      <c r="A102" s="5" t="s">
-        <v>190</v>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="B102" s="4"/>
-      <c r="C102" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="103" ht="18.75" customHeight="1">
+      <c r="C102" s="4"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
         <v>192</v>
       </c>
@@ -2431,7 +2574,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
         <v>194</v>
       </c>
@@ -2443,7 +2586,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
         <v>196</v>
       </c>
@@ -2455,7 +2598,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
         <v>198</v>
       </c>
@@ -2463,22 +2606,23 @@
       <c r="C106" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D106" s="16" t="s">
+      <c r="D106" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="8" t="s">
+      <c r="B107" s="4"/>
+      <c r="C107" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="D107" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D107" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="108">
+    </row>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="8" t="s">
         <v>203</v>
       </c>
@@ -2489,109 +2633,111 @@
         <v>204</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="10"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="5"/>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="14"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="7"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="3" t="s">
-        <v>205</v>
-      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="5"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="17" t="s">
-        <v>206</v>
+      <c r="C111" s="4"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="17" t="s">
-        <v>207</v>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="B113" s="4"/>
-      <c r="C113" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="114">
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B114" s="17"/>
       <c r="C114" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B115" s="4"/>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
       <c r="C115" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="8" t="s">
+      <c r="D115" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="B116" s="4"/>
+      <c r="C116" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D116" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="117">
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="8" t="s">
         <v>214</v>
       </c>
       <c r="C117" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C119" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="D117" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>217</v>
-      </c>
       <c r="D119" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="8" t="s">
         <v>218</v>
       </c>
@@ -2602,47 +2748,47 @@
         <v>219</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="18" t="s">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="19"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="8" t="s">
+      <c r="C121" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C123" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D123" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="124">
+      <c r="D121" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="19"/>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>215</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>215</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="8" t="s">
         <v>225</v>
       </c>
@@ -2653,257 +2799,274 @@
         <v>226</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="8" t="s">
         <v>227</v>
       </c>
       <c r="C127" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C128" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D128" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D128" s="20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="129">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="8" t="s">
         <v>230</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D129" s="20" t="s">
+      <c r="D129" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="8" t="s">
         <v>232</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D130" s="20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>233</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C131" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="D131" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D132" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="132">
-      <c r="D132" s="21"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="D133" s="21"/>
-    </row>
-    <row r="134" ht="30.0" customHeight="1">
-      <c r="A134" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C134" s="22" t="s">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D133" s="20"/>
+    </row>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="D134" s="23" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="8" t="s">
+      <c r="D134" s="20"/>
+    </row>
+    <row r="135" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="D135" s="20" t="s">
+      <c r="D135" s="22" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="10" t="s">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C136" s="22" t="s">
+      <c r="C136" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D136" s="23" t="s">
+      <c r="D136" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="18" t="s">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="14" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="5" t="s">
+      <c r="C137" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="B139" s="4"/>
-      <c r="C139" s="5" t="s">
+      <c r="D137" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="8" t="s">
+    </row>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="B140" s="4"/>
+      <c r="C140" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D140" s="24" t="s">
+      <c r="D140" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="8" t="s">
+      <c r="C141" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="D141" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="D141" s="8" t="s">
+    </row>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="8" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="8" t="s">
+      <c r="C142" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="D142" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C143" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D143" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C145" s="8" t="s">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="D145" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="146">
+    </row>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="8" t="s">
         <v>254</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D146" s="24" t="s">
+      <c r="D146" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="8" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="8" t="s">
+      <c r="C147" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C147" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D147" s="25" t="s">
+      <c r="D147" s="23" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="8" t="s">
         <v>259</v>
       </c>
       <c r="C148" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D148" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="D148" s="24" t="s">
+    </row>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="8" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="8" t="s">
+      <c r="C149" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="150">
+      <c r="D149" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C152" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D152" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="153">
+    </row>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D153" s="26" t="s">
+      <c r="D153" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="8" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="8" t="s">
+      <c r="C154" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="D154" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="D154" s="27" t="s">
+    </row>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="8" t="s">
         <v>272</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D155" s="26" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="E30:E32"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>